--- a/biology/Histoire de la zoologie et de la botanique/Martin_Lister/Martin_Lister.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Martin_Lister/Martin_Lister.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Lister, né vers 1638 à Radclive près de Buckingham et mort le 2 février 1712 à Epsom, est un médecin et un naturaliste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le neveu de Sir Matthew Lister, médecin d'Anne de Danemark, femme de Jacques Ier, et de Charles Ier.
 Il fait ses études au St John's College de Cambridge et obtient en 1658 ou 1659 son titre de médecin. Il pratique la médecine à York jusqu'en 1683, date à laquelle il quitte Londres.
@@ -533,8 +547,8 @@
 Les illustrations sont en parties signées par les deux filles de Lister, Susanna et Anna.
 	Planches extraites de Historiae Conchyliorum (1691)
 Martin Lister donne en 1682 une traduction anglaise de Metamorphosis et historia naturalis insectorum de Jan Goedart et publia en 1685 une version améliorée en latin selon un ordre méthodique et une classification qui lui sont propres.
-Ses centres d'intérêt ne se limitent pas à l'histoire naturelle. Il est le premier auteur connu à lancer l'idée de cartes géologiques[1]. 
-Cherchant à comprendre la formation de la Terre, il présente en 1683 à la Royal Society un mémoire (publié en 1684) intitulé An ingenious proposal for a new sort of maps of countreys (« Une proposition ingénieuse pour une nouvelle sorte de cartes des pays »), carte géographique qui tiendrait compte de la nature du sol, notamment pour révéler la présence de sables ou d'argiles : « a soil or mineral map, as I may I call it, were devised […] The soil might either be coloured by a variety of lines or etchings, but great care must be taken very exactly to note on the map, where such and such soils are bounded »[2].
+Ses centres d'intérêt ne se limitent pas à l'histoire naturelle. Il est le premier auteur connu à lancer l'idée de cartes géologiques. 
+Cherchant à comprendre la formation de la Terre, il présente en 1683 à la Royal Society un mémoire (publié en 1684) intitulé An ingenious proposal for a new sort of maps of countreys (« Une proposition ingénieuse pour une nouvelle sorte de cartes des pays »), carte géographique qui tiendrait compte de la nature du sol, notamment pour révéler la présence de sables ou d'argiles : « a soil or mineral map, as I may I call it, were devised […] The soil might either be coloured by a variety of lines or etchings, but great care must be taken very exactly to note on the map, where such and such soils are bounded ».
 En 1705, il édite à Londres une version annotée du traité d'Apicius.
 En 1698, il fait un séjour à Paris et fait publier l'année suivante à Londres un ouvrage où il relate ce voyage : A Journey to Paris In the Year 1698, Londres, Jacob Tonſon, 1699 et qui a fait l'objet d'une traduction française.
 </t>
